--- a/data/trans_orig/PCS12_SP_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R3-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA4753C5-C03A-4DF5-AB49-1FC45B4FC742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A670B27A-0A2A-4AA2-A771-76A1758247A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22ECF98E-0191-4212-9334-939322D3EF32}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5E9AE560-4614-45DB-B7FB-CBABAFBC61EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
-  <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="579">
+  <si>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -128,7 +128,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>4,26%</t>
@@ -185,7 +185,7 @@
     <t>94,82%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>6,92%</t>
@@ -242,7 +242,7 @@
     <t>91,29%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>11,24%</t>
@@ -293,7 +293,7 @@
     <t>84,64%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>28,6%</t>
@@ -350,61 +350,118 @@
     <t>71,89%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>15,8%</t>
@@ -464,7 +521,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>3,55%</t>
@@ -719,58 +776,100 @@
     <t>69,36%</t>
   </si>
   <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>17,87%</t>
@@ -827,7 +926,7 @@
     <t>77,35%</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,85%</t>
@@ -1094,58 +1193,106 @@
     <t>72,99%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
   <si>
     <t>16,69%</t>
@@ -1202,361 +1349,433 @@
     <t>79,57%</t>
   </si>
   <si>
-    <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
   </si>
   <si>
     <t>34,34%</t>
   </si>
   <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>65,66%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
 </sst>
 </file>
@@ -1968,8 +2187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743AED71-2F16-4278-9737-543887B99B2E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F696ABC8-E47E-4849-929A-A83B935C88B2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2861,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>266</v>
+        <v>117</v>
       </c>
       <c r="D19" s="7">
-        <v>252242</v>
+        <v>111703</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2876,10 +3095,10 @@
         <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>462</v>
+        <v>227</v>
       </c>
       <c r="I19" s="7">
-        <v>479694</v>
+        <v>209544</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -2891,10 +3110,10 @@
         <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>728</v>
+        <v>344</v>
       </c>
       <c r="N19" s="7">
-        <v>731936</v>
+        <v>321246</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -2912,10 +3131,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="D20" s="7">
-        <v>250224</v>
+        <v>180880</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>113</v>
@@ -2927,10 +3146,10 @@
         <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="I20" s="7">
-        <v>197148</v>
+        <v>133390</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -2942,10 +3161,10 @@
         <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>456</v>
+        <v>330</v>
       </c>
       <c r="N20" s="7">
-        <v>447372</v>
+        <v>314271</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>119</v>
@@ -2963,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -2978,10 +3197,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -2993,10 +3212,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -3010,55 +3229,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>529</v>
+        <v>149</v>
       </c>
       <c r="D22" s="7">
-        <v>517680</v>
+        <v>140539</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>888</v>
+        <v>235</v>
       </c>
       <c r="I22" s="7">
-        <v>919072</v>
+        <v>270151</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>1417</v>
+        <v>384</v>
       </c>
       <c r="N22" s="7">
-        <v>1436751</v>
+        <v>410689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,49 +3286,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2685</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>2758864</v>
+        <v>69344</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>2409</v>
+        <v>55</v>
       </c>
       <c r="I23" s="7">
-        <v>2460126</v>
+        <v>63757</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>5094</v>
+        <v>126</v>
       </c>
       <c r="N23" s="7">
-        <v>5218989</v>
+        <v>133102</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,63 +3337,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>529</v>
+      </c>
+      <c r="D25" s="7">
+        <v>517680</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>888</v>
+      </c>
+      <c r="I25" s="7">
+        <v>919072</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1417</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1436752</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2685</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2758863</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2409</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2460125</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5094</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5218989</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3187,8 +3562,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2781C4-A869-46DF-8153-35FEE787804A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEDAA54-8980-4012-8259-59695822BADF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3204,7 +3579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3311,13 +3686,13 @@
         <v>16143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -3326,13 +3701,13 @@
         <v>28249</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -3341,13 +3716,13 @@
         <v>44392</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3737,13 @@
         <v>438003</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>394</v>
@@ -3377,13 +3752,13 @@
         <v>401981</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>824</v>
@@ -3392,13 +3767,13 @@
         <v>839984</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3841,13 @@
         <v>43983</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -3484,10 +3859,10 @@
         <v>49</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -3496,13 +3871,13 @@
         <v>86236</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3892,13 @@
         <v>643104</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>531</v>
@@ -3535,10 +3910,10 @@
         <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>1157</v>
@@ -3547,10 +3922,10 @@
         <v>1211106</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>23</v>
@@ -3621,13 +3996,13 @@
         <v>61965</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>99</v>
@@ -3636,13 +4011,13 @@
         <v>105916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>160</v>
@@ -3651,13 +4026,13 @@
         <v>167880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +4047,13 @@
         <v>619898</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>568</v>
@@ -3687,13 +4062,13 @@
         <v>604934</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>1158</v>
@@ -3702,13 +4077,13 @@
         <v>1224832</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +4151,13 @@
         <v>80160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -3791,13 +4166,13 @@
         <v>121823</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -3806,13 +4181,13 @@
         <v>201983</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +4202,13 @@
         <v>534457</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>430</v>
@@ -3842,13 +4217,13 @@
         <v>494376</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>905</v>
@@ -3857,13 +4232,13 @@
         <v>1028833</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +4306,13 @@
         <v>102188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>177</v>
@@ -3946,13 +4321,13 @@
         <v>196835</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>271</v>
@@ -3961,13 +4336,13 @@
         <v>299024</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +4357,13 @@
         <v>327241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>229</v>
@@ -3997,13 +4372,13 @@
         <v>250965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -4012,13 +4387,13 @@
         <v>578205</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,49 +4455,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="D19" s="7">
-        <v>307979</v>
+        <v>132552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
-        <v>506</v>
+        <v>214</v>
       </c>
       <c r="I19" s="7">
-        <v>542013</v>
+        <v>217088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
-        <v>781</v>
+        <v>333</v>
       </c>
       <c r="N19" s="7">
-        <v>849992</v>
+        <v>349639</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,49 +4506,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="D20" s="7">
-        <v>251658</v>
+        <v>177234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="I20" s="7">
-        <v>200962</v>
+        <v>136908</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M20" s="7">
-        <v>417</v>
+        <v>293</v>
       </c>
       <c r="N20" s="7">
-        <v>452620</v>
+        <v>314143</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,10 +4557,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -4197,10 +4572,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -4212,10 +4587,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -4229,55 +4604,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>560</v>
+        <v>156</v>
       </c>
       <c r="D22" s="7">
-        <v>612418</v>
+        <v>175427</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="H22" s="7">
-        <v>958</v>
+        <v>292</v>
       </c>
       <c r="I22" s="7">
-        <v>1037089</v>
+        <v>324925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
-        <v>1518</v>
+        <v>448</v>
       </c>
       <c r="N22" s="7">
-        <v>1649508</v>
+        <v>500353</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,49 +4661,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2649</v>
+        <v>66</v>
       </c>
       <c r="D23" s="7">
-        <v>2814361</v>
+        <v>74424</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
-        <v>2340</v>
+        <v>58</v>
       </c>
       <c r="I23" s="7">
-        <v>2521220</v>
+        <v>64054</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M23" s="7">
-        <v>4989</v>
+        <v>124</v>
       </c>
       <c r="N23" s="7">
-        <v>5335580</v>
+        <v>138477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,63 +4712,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>560</v>
+      </c>
+      <c r="D25" s="7">
+        <v>612418</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="7">
+        <v>958</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1037089</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1518</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1649508</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2649</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2814361</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2340</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2521220</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4989</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5335580</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4406,8 +4937,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CD435F-7C93-49D4-A97D-24A13F4B973E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43059F5D-EB13-4E89-9CE2-3E7AC54890D5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4423,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4530,13 +5061,13 @@
         <v>7765</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4545,13 +5076,13 @@
         <v>18456</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -4560,13 +5091,13 @@
         <v>26222</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +5112,13 @@
         <v>411698</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>385</v>
@@ -4596,13 +5127,13 @@
         <v>377299</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>771</v>
@@ -4611,13 +5142,13 @@
         <v>788996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +5216,13 @@
         <v>28079</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -4700,13 +5231,13 @@
         <v>38560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -4715,13 +5246,13 @@
         <v>66639</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +5267,13 @@
         <v>562417</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>542</v>
@@ -4751,13 +5282,13 @@
         <v>524984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="M8" s="7">
         <v>1084</v>
@@ -4766,13 +5297,13 @@
         <v>1087401</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +5371,13 @@
         <v>49342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -4855,13 +5386,13 @@
         <v>68047</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -4870,13 +5401,13 @@
         <v>117389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +5422,13 @@
         <v>619755</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
         <v>600</v>
@@ -4906,13 +5437,13 @@
         <v>593339</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>1191</v>
@@ -4921,13 +5452,13 @@
         <v>1213094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +5526,13 @@
         <v>96502</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -5010,13 +5541,13 @@
         <v>123116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -5025,13 +5556,13 @@
         <v>219618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5577,13 @@
         <v>549546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>487</v>
@@ -5061,13 +5592,13 @@
         <v>525961</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>983</v>
@@ -5076,13 +5607,13 @@
         <v>1075507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5681,13 @@
         <v>114793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -5165,13 +5696,13 @@
         <v>180469</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>258</v>
@@ -5180,13 +5711,13 @@
         <v>295262</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5732,13 @@
         <v>363125</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>275</v>
@@ -5216,13 +5747,13 @@
         <v>316380</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>599</v>
@@ -5231,13 +5762,13 @@
         <v>679505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,49 +5830,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7">
-        <v>269868</v>
+        <v>111697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
-        <v>412</v>
+        <v>187</v>
       </c>
       <c r="I19" s="7">
-        <v>498063</v>
+        <v>197898</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
-        <v>704</v>
+        <v>296</v>
       </c>
       <c r="N19" s="7">
-        <v>767931</v>
+        <v>309595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,49 +5881,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>335</v>
+        <v>216</v>
       </c>
       <c r="D20" s="7">
-        <v>321460</v>
+        <v>222633</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="I20" s="7">
-        <v>279868</v>
+        <v>179864</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
-        <v>578</v>
+        <v>383</v>
       </c>
       <c r="N20" s="7">
-        <v>601328</v>
+        <v>402497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,10 +5932,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -5416,10 +5947,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -5431,10 +5962,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -5448,55 +5979,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>557</v>
+        <v>183</v>
       </c>
       <c r="D22" s="7">
-        <v>566350</v>
+        <v>158171</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="H22" s="7">
-        <v>806</v>
+        <v>225</v>
       </c>
       <c r="I22" s="7">
-        <v>926711</v>
+        <v>300165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
-        <v>1363</v>
+        <v>408</v>
       </c>
       <c r="N22" s="7">
-        <v>1493061</v>
+        <v>458336</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,49 +6036,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2674</v>
+        <v>119</v>
       </c>
       <c r="D23" s="7">
-        <v>2828000</v>
+        <v>98827</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
-        <v>2532</v>
+        <v>76</v>
       </c>
       <c r="I23" s="7">
-        <v>2617831</v>
+        <v>100004</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
-        <v>5206</v>
+        <v>195</v>
       </c>
       <c r="N23" s="7">
-        <v>5445831</v>
+        <v>198831</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,63 +6087,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>557</v>
+      </c>
+      <c r="D25" s="7">
+        <v>566350</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H25" s="7">
+        <v>806</v>
+      </c>
+      <c r="I25" s="7">
+        <v>926711</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1363</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1493061</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2674</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2828000</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2532</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2617831</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5206</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5445831</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5625,8 +6312,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9C313C-A138-4AA0-B025-88B41063B433}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA81CB12-0D57-4D0B-9122-8FFED595AC9C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5642,7 +6329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5746,46 +6433,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>4496</v>
+        <v>4681</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>19531</v>
+        <v>17336</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>24027</v>
+        <v>22018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,46 +6484,46 @@
         <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>373183</v>
+        <v>395306</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>333737</v>
+        <v>294281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
       </c>
       <c r="N5" s="7">
-        <v>706920</v>
+        <v>689586</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,7 +6535,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -5863,7 +6550,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>353268</v>
+        <v>311617</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -5878,7 +6565,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>730947</v>
+        <v>711604</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -5901,46 +6588,46 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>41515</v>
+        <v>41415</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>36359</v>
+        <v>34706</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
       </c>
       <c r="N7" s="7">
-        <v>77874</v>
+        <v>76121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>412</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,46 +6639,46 @@
         <v>270</v>
       </c>
       <c r="D8" s="7">
-        <v>386881</v>
+        <v>382132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="H8" s="7">
         <v>424</v>
       </c>
       <c r="I8" s="7">
-        <v>461625</v>
+        <v>476258</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="M8" s="7">
         <v>694</v>
       </c>
       <c r="N8" s="7">
-        <v>848506</v>
+        <v>858390</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>421</v>
+        <v>344</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +6690,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -6018,7 +6705,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497984</v>
+        <v>510964</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -6033,7 +6720,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>926380</v>
+        <v>934511</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -6056,46 +6743,46 @@
         <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>66323</v>
+        <v>64370</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
       </c>
       <c r="I10" s="7">
-        <v>85233</v>
+        <v>79704</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>189</v>
       </c>
       <c r="N10" s="7">
-        <v>151556</v>
+        <v>144074</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,46 +6794,46 @@
         <v>484</v>
       </c>
       <c r="D11" s="7">
-        <v>489957</v>
+        <v>470999</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>497397</v>
+        <v>462054</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="M11" s="7">
         <v>1201</v>
       </c>
       <c r="N11" s="7">
-        <v>987353</v>
+        <v>933054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,7 +6845,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>556280</v>
+        <v>535369</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -6173,7 +6860,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582630</v>
+        <v>541758</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -6188,7 +6875,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138909</v>
+        <v>1077128</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -6211,46 +6898,46 @@
         <v>127</v>
       </c>
       <c r="D13" s="7">
-        <v>182247</v>
+        <v>369498</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="H13" s="7">
         <v>278</v>
       </c>
       <c r="I13" s="7">
-        <v>182182</v>
+        <v>168444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>494</v>
       </c>
       <c r="M13" s="7">
         <v>405</v>
       </c>
       <c r="N13" s="7">
-        <v>364430</v>
+        <v>537942</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,46 +6949,46 @@
         <v>536</v>
       </c>
       <c r="D14" s="7">
-        <v>539579</v>
+        <v>516193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>857</v>
       </c>
       <c r="I14" s="7">
-        <v>561271</v>
+        <v>540868</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>502</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>1393</v>
       </c>
       <c r="N14" s="7">
-        <v>1100850</v>
+        <v>1057061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,7 +7000,7 @@
         <v>663</v>
       </c>
       <c r="D15" s="7">
-        <v>721826</v>
+        <v>885691</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -6328,7 +7015,7 @@
         <v>1135</v>
       </c>
       <c r="I15" s="7">
-        <v>743453</v>
+        <v>709312</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -6343,7 +7030,7 @@
         <v>1798</v>
       </c>
       <c r="N15" s="7">
-        <v>1465280</v>
+        <v>1595003</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -6366,46 +7053,46 @@
         <v>199</v>
       </c>
       <c r="D16" s="7">
-        <v>186419</v>
+        <v>175705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>374</v>
       </c>
       <c r="I16" s="7">
-        <v>222893</v>
+        <v>204687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>510</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="M16" s="7">
         <v>573</v>
       </c>
       <c r="N16" s="7">
-        <v>409313</v>
+        <v>380392</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,46 +7104,46 @@
         <v>459</v>
       </c>
       <c r="D17" s="7">
-        <v>407045</v>
+        <v>379232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>624</v>
       </c>
       <c r="I17" s="7">
-        <v>371687</v>
+        <v>340914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>519</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="M17" s="7">
         <v>1083</v>
       </c>
       <c r="N17" s="7">
-        <v>778731</v>
+        <v>720146</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +7155,7 @@
         <v>658</v>
       </c>
       <c r="D18" s="7">
-        <v>593464</v>
+        <v>554937</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -6483,7 +7170,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>594580</v>
+        <v>545601</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -6498,7 +7185,7 @@
         <v>1656</v>
       </c>
       <c r="N18" s="7">
-        <v>1188044</v>
+        <v>1100538</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -6518,49 +7205,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>440</v>
+        <v>182</v>
       </c>
       <c r="D19" s="7">
-        <v>295761</v>
+        <v>116237</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>365</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="H19" s="7">
-        <v>1070</v>
+        <v>393</v>
       </c>
       <c r="I19" s="7">
-        <v>575568</v>
+        <v>192278</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="M19" s="7">
-        <v>1510</v>
+        <v>575</v>
       </c>
       <c r="N19" s="7">
-        <v>871329</v>
+        <v>308515</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,49 +7256,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>578</v>
+        <v>382</v>
       </c>
       <c r="D20" s="7">
-        <v>394757</v>
+        <v>247524</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>355</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
-        <v>618</v>
+        <v>431</v>
       </c>
       <c r="I20" s="7">
-        <v>440089</v>
+        <v>414365</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
-        <v>1196</v>
+        <v>813</v>
       </c>
       <c r="N20" s="7">
-        <v>834845</v>
+        <v>661890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,10 +7307,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1018</v>
+        <v>564</v>
       </c>
       <c r="D21" s="7">
-        <v>690518</v>
+        <v>363761</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -6635,10 +7322,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>1688</v>
+        <v>824</v>
       </c>
       <c r="I21" s="7">
-        <v>1015657</v>
+        <v>606643</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -6650,10 +7337,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>2706</v>
+        <v>1388</v>
       </c>
       <c r="N21" s="7">
-        <v>1706174</v>
+        <v>970405</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -6667,55 +7354,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>862</v>
+        <v>258</v>
       </c>
       <c r="D22" s="7">
-        <v>776762</v>
+        <v>160759</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="H22" s="7">
-        <v>1897</v>
+        <v>677</v>
       </c>
       <c r="I22" s="7">
-        <v>1121765</v>
+        <v>328160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
-        <v>2759</v>
+        <v>935</v>
       </c>
       <c r="N22" s="7">
-        <v>1898528</v>
+        <v>488919</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>210</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,49 +7411,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2496</v>
+        <v>196</v>
       </c>
       <c r="D23" s="7">
-        <v>2591400</v>
+        <v>119659</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="H23" s="7">
-        <v>3434</v>
+        <v>187</v>
       </c>
       <c r="I23" s="7">
-        <v>2665807</v>
+        <v>89548</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
-        <v>5930</v>
+        <v>383</v>
       </c>
       <c r="N23" s="7">
-        <v>5257206</v>
+        <v>209207</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>218</v>
+        <v>559</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,63 +7462,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>454</v>
+      </c>
+      <c r="D24" s="7">
+        <v>280418</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>864</v>
+      </c>
+      <c r="I24" s="7">
+        <v>417708</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1318</v>
+      </c>
+      <c r="N24" s="7">
+        <v>698126</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>862</v>
+      </c>
+      <c r="D25" s="7">
+        <v>932665</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1897</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1025315</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2759</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1957981</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2496</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2511046</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3434</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2618288</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5930</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5129333</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3358</v>
       </c>
-      <c r="D24" s="7">
-        <v>3368162</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3443711</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>5331</v>
       </c>
-      <c r="I24" s="7">
-        <v>3787572</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3643603</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>8689</v>
       </c>
-      <c r="N24" s="7">
-        <v>7155734</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7087314</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
